--- a/suite.xlsx
+++ b/suite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Execute</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>verifyLoginPage</t>
+  </si>
+  <si>
+    <t>loginLogout</t>
   </si>
 </sst>
 </file>
@@ -362,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -386,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -394,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -403,6 +409,22 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
